--- a/Effort.xlsx
+++ b/Effort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magnusfehrmann/Desktop/Database projekt/08_MoviBus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F47C52C-B1AF-45C8-9780-95B2472B53B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2426BC30-817D-314E-9C63-68AF627E7F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24A6F322-B314-4F5C-BCAA-874E8E453F36}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{24A6F322-B314-4F5C-BCAA-874E8E453F36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,25 +68,25 @@
     <t>X</t>
   </si>
   <si>
-    <t>Alice Andersen</t>
-  </si>
-  <si>
-    <t>Bob Baron</t>
-  </si>
-  <si>
-    <t>Charlie Chambers</t>
-  </si>
-  <si>
-    <t>Edgar Ewans</t>
-  </si>
-  <si>
-    <t>Diana Davidson</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>Peter Roland Bøttcher Møller</t>
+  </si>
+  <si>
+    <t>Ludvig Torp Petersen</t>
+  </si>
+  <si>
+    <t>Oliver Hoejgaard Hvitfeld</t>
+  </si>
+  <si>
+    <t>Magnus Peter Langhoff Fehrmann</t>
+  </si>
+  <si>
+    <t>Alexander Lillerup-Rasmussen</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 Tema">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -513,23 +513,23 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -558,21 +558,21 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E2" s="2">
         <v>0.2</v>
@@ -581,23 +581,23 @@
         <v>0.2</v>
       </c>
       <c r="G2" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="H2" s="2">
         <v>0.2</v>
       </c>
       <c r="I2" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="J2" s="3">
         <f>AVERAGE(C2:I2)</f>
-        <v>0.19999999999999996</v>
+        <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>0.2</v>
@@ -625,10 +625,10 @@
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>0.2</v>
@@ -637,10 +637,10 @@
         <v>0.2</v>
       </c>
       <c r="E4" s="2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F4" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G4" s="2">
         <v>0.2</v>
@@ -656,41 +656,41 @@
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F5" s="2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G5" s="2">
         <v>0.2</v>
       </c>
       <c r="H5" s="2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I5" s="2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="J5" s="3">
         <f>AVERAGE(C5:I5)</f>
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>0.2</v>
@@ -705,10 +705,10 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="H6" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I6" s="2">
         <v>0.2</v>
@@ -718,10 +718,10 @@
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C2:C6)</f>
@@ -753,7 +753,7 @@
       </c>
       <c r="J7" s="1">
         <f>SUM(J2:J6)</f>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>
